--- a/source/experiments/experiments_repetitions.xlsx
+++ b/source/experiments/experiments_repetitions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\TDG Matemáticas\secure-svm\source\experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E274A3F7-2B27-4FF5-BA3F-A53AADA3D69B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A27CECD3-E683-4F3A-945E-B479A3E846F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B2C90672-A333-4764-ACA8-A28154BCCD1D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{B2C90672-A333-4764-ACA8-A28154BCCD1D}"/>
   </bookViews>
   <sheets>
     <sheet name="Rows experiment" sheetId="1" r:id="rId1"/>
@@ -1208,8 +1208,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1226,18 +1226,28 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>'Class separation experiment'!$D$3:$D$6</c:f>
               <c:numCache>
@@ -1257,8 +1267,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>'Class separation experiment'!$H$3:$H$6</c:f>
               <c:numCache>
@@ -1278,7 +1288,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1301,18 +1311,28 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>'Class separation experiment'!$D$3:$D$6</c:f>
               <c:numCache>
@@ -1332,8 +1352,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>'Class separation experiment'!$P$3:$P$6</c:f>
               <c:numCache>
@@ -1353,7 +1373,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1376,18 +1396,28 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>'Class separation experiment'!$D$3:$D$6</c:f>
               <c:numCache>
@@ -1407,8 +1437,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>'Class separation experiment'!$X$3:$X$6</c:f>
               <c:numCache>
@@ -1428,7 +1458,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1451,18 +1481,28 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>'Class separation experiment'!$D$3:$D$6</c:f>
               <c:numCache>
@@ -1482,8 +1522,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>'Class separation experiment'!$AF$3:$AF$6</c:f>
               <c:numCache>
@@ -1503,7 +1543,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1526,18 +1566,28 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>'Class separation experiment'!$D$3:$D$6</c:f>
               <c:numCache>
@@ -1557,8 +1607,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>'Class separation experiment'!$AN$3:$AN$6</c:f>
               <c:numCache>
@@ -1578,7 +1628,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1601,18 +1651,28 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>'Class separation experiment'!$D$3:$D$6</c:f>
               <c:numCache>
@@ -1632,8 +1692,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>'Class separation experiment'!$AV$3:$AV$6</c:f>
               <c:numCache>
@@ -1653,7 +1713,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1676,20 +1736,32 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1">
                   <a:lumMod val="60000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>'Class separation experiment'!$D$3:$D$6</c:f>
               <c:numCache>
@@ -1709,8 +1781,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>'Class separation experiment'!$BD$3:$BD$6</c:f>
               <c:numCache>
@@ -1730,7 +1802,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1753,20 +1825,32 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2">
                   <a:lumMod val="60000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>'Class separation experiment'!$D$3:$D$6</c:f>
               <c:numCache>
@@ -1786,8 +1870,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>'Class separation experiment'!$BL$3:$BL$6</c:f>
               <c:numCache>
@@ -1807,7 +1891,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1830,20 +1914,32 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent3">
                   <a:lumMod val="60000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>'Class separation experiment'!$D$3:$D$6</c:f>
               <c:numCache>
@@ -1863,8 +1959,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>'Class separation experiment'!$BT$3:$BT$6</c:f>
               <c:numCache>
@@ -1884,7 +1980,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1907,20 +2003,32 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent4">
                   <a:lumMod val="60000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>'Class separation experiment'!$D$3:$D$6</c:f>
               <c:numCache>
@@ -1940,8 +2048,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>'Class separation experiment'!$CB$3:$CB$6</c:f>
               <c:numCache>
@@ -1961,7 +2069,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1977,11 +2085,10 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
         <c:axId val="1630139856"/>
         <c:axId val="1622269488"/>
-      </c:lineChart>
-      <c:catAx>
+      </c:scatterChart>
+      <c:valAx>
         <c:axId val="1630139856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
@@ -2027,11 +2134,8 @@
         </c:txPr>
         <c:crossAx val="1622269488"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
         <c:axId val="1622269488"/>
         <c:scaling>
@@ -2086,7 +2190,7 @@
         </c:txPr>
         <c:crossAx val="1630139856"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -3971,8 +4075,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -3989,18 +4093,28 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>'Rows experiment'!$B$3:$B$9</c:f>
               <c:numCache>
@@ -4029,8 +4143,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>'Rows experiment'!$J$3:$J$9</c:f>
               <c:numCache>
@@ -4059,7 +4173,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -4082,18 +4196,28 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>'Rows experiment'!$B$3:$B$9</c:f>
               <c:numCache>
@@ -4122,8 +4246,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>'Rows experiment'!$R$3:$R$9</c:f>
               <c:numCache>
@@ -4152,7 +4276,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -4175,18 +4299,28 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>'Rows experiment'!$B$3:$B$9</c:f>
               <c:numCache>
@@ -4215,8 +4349,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>'Rows experiment'!$Z$3:$Z$9</c:f>
               <c:numCache>
@@ -4245,7 +4379,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -4261,11 +4395,10 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
         <c:axId val="1528527728"/>
         <c:axId val="1527966272"/>
-      </c:lineChart>
-      <c:catAx>
+      </c:scatterChart>
+      <c:valAx>
         <c:axId val="1528527728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
@@ -4311,11 +4444,8 @@
         </c:txPr>
         <c:crossAx val="1527966272"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
         <c:axId val="1527966272"/>
         <c:scaling>
@@ -4370,7 +4500,7 @@
         </c:txPr>
         <c:crossAx val="1528527728"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -5079,8 +5209,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -5097,18 +5227,28 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>'Column Experiment'!$C$3:$C$11</c:f>
               <c:numCache>
@@ -5143,8 +5283,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>'Column Experiment'!$I$3:$I$11</c:f>
               <c:numCache>
@@ -5179,7 +5319,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -5202,18 +5342,28 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>'Column Experiment'!$C$3:$C$11</c:f>
               <c:numCache>
@@ -5248,8 +5398,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>'Column Experiment'!$Q$3:$Q$11</c:f>
               <c:numCache>
@@ -5284,7 +5434,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -5307,18 +5457,28 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>'Column Experiment'!$C$3:$C$11</c:f>
               <c:numCache>
@@ -5353,8 +5513,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>'Column Experiment'!$Y$3:$Y$11</c:f>
               <c:numCache>
@@ -5389,7 +5549,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -5405,11 +5565,10 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
         <c:axId val="1705001520"/>
         <c:axId val="1710819552"/>
-      </c:lineChart>
-      <c:catAx>
+      </c:scatterChart>
+      <c:valAx>
         <c:axId val="1705001520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
@@ -5455,11 +5614,8 @@
         </c:txPr>
         <c:crossAx val="1710819552"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
         <c:axId val="1710819552"/>
         <c:scaling>
@@ -5514,7 +5670,7 @@
         </c:txPr>
         <c:crossAx val="1705001520"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -5669,8 +5825,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -5687,18 +5843,28 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>'Column Experiment'!$C$3:$C$11</c:f>
               <c:numCache>
@@ -5733,8 +5899,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>'Column Experiment'!$J$3:$J$11</c:f>
               <c:numCache>
@@ -5769,7 +5935,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -5792,18 +5958,28 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>'Column Experiment'!$C$3:$C$11</c:f>
               <c:numCache>
@@ -5838,8 +6014,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>'Column Experiment'!$R$3:$R$11</c:f>
               <c:numCache>
@@ -5874,7 +6050,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -5897,18 +6073,28 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>'Column Experiment'!$C$3:$C$11</c:f>
               <c:numCache>
@@ -5943,8 +6129,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>'Column Experiment'!$Z$3:$Z$11</c:f>
               <c:numCache>
@@ -5979,7 +6165,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -5995,11 +6181,10 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
         <c:axId val="1754590720"/>
         <c:axId val="1710819968"/>
-      </c:lineChart>
-      <c:catAx>
+      </c:scatterChart>
+      <c:valAx>
         <c:axId val="1754590720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
@@ -6045,11 +6230,8 @@
         </c:txPr>
         <c:crossAx val="1710819968"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
         <c:axId val="1710819968"/>
         <c:scaling>
@@ -6104,7 +6286,7 @@
         </c:txPr>
         <c:crossAx val="1754590720"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -6844,8 +7026,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -6862,18 +7044,28 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>'Class separation experiment'!$D$3:$D$6</c:f>
               <c:numCache>
@@ -6893,8 +7085,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>'Class separation experiment'!$E$3:$E$6</c:f>
               <c:numCache>
@@ -6914,7 +7106,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -6937,18 +7129,28 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>'Class separation experiment'!$D$3:$D$6</c:f>
               <c:numCache>
@@ -6968,8 +7170,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>'Class separation experiment'!$M$3:$M$6</c:f>
               <c:numCache>
@@ -6989,7 +7191,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -7012,18 +7214,28 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>'Class separation experiment'!$D$3:$D$6</c:f>
               <c:numCache>
@@ -7043,8 +7255,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>'Class separation experiment'!$U$3:$U$6</c:f>
               <c:numCache>
@@ -7064,7 +7276,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -7087,18 +7299,28 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>'Class separation experiment'!$D$3:$D$6</c:f>
               <c:numCache>
@@ -7118,8 +7340,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>'Class separation experiment'!$AC$3:$AC$6</c:f>
               <c:numCache>
@@ -7139,7 +7361,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -7162,18 +7384,28 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>'Class separation experiment'!$D$3:$D$6</c:f>
               <c:numCache>
@@ -7193,8 +7425,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>'Class separation experiment'!$AK$3:$AK$6</c:f>
               <c:numCache>
@@ -7214,7 +7446,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -7237,18 +7469,28 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>'Class separation experiment'!$D$3:$D$6</c:f>
               <c:numCache>
@@ -7268,8 +7510,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>'Class separation experiment'!$AS$3:$AS$6</c:f>
               <c:numCache>
@@ -7289,7 +7531,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -7312,20 +7554,32 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1">
                   <a:lumMod val="60000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>'Class separation experiment'!$D$3:$D$6</c:f>
               <c:numCache>
@@ -7345,8 +7599,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>'Class separation experiment'!$BA$3:$BA$6</c:f>
               <c:numCache>
@@ -7366,7 +7620,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -7389,20 +7643,32 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2">
                   <a:lumMod val="60000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>'Class separation experiment'!$D$3:$D$6</c:f>
               <c:numCache>
@@ -7422,8 +7688,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>'Class separation experiment'!$BI$3:$BI$6</c:f>
               <c:numCache>
@@ -7443,7 +7709,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -7466,20 +7732,32 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent3">
                   <a:lumMod val="60000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>'Class separation experiment'!$D$3:$D$6</c:f>
               <c:numCache>
@@ -7499,8 +7777,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>'Class separation experiment'!$BQ$3:$BQ$6</c:f>
               <c:numCache>
@@ -7520,7 +7798,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -7543,20 +7821,32 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent4">
                   <a:lumMod val="60000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>'Class separation experiment'!$D$3:$D$6</c:f>
               <c:numCache>
@@ -7576,8 +7866,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>'Class separation experiment'!$BY$3:$BY$6</c:f>
               <c:numCache>
@@ -7597,7 +7887,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -7613,11 +7903,10 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
         <c:axId val="1873251792"/>
         <c:axId val="1397426640"/>
-      </c:lineChart>
-      <c:catAx>
+      </c:scatterChart>
+      <c:valAx>
         <c:axId val="1873251792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
@@ -7663,11 +7952,8 @@
         </c:txPr>
         <c:crossAx val="1397426640"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
         <c:axId val="1397426640"/>
         <c:scaling>
@@ -7722,7 +8008,7 @@
         </c:txPr>
         <c:crossAx val="1873251792"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -7846,8 +8132,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -7864,18 +8150,28 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>'Class separation experiment'!$D$3:$D$6</c:f>
               <c:numCache>
@@ -7895,8 +8191,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>'Class separation experiment'!$F$3:$F$6</c:f>
               <c:numCache>
@@ -7916,7 +8212,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -7939,18 +8235,28 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>'Class separation experiment'!$D$3:$D$6</c:f>
               <c:numCache>
@@ -7970,8 +8276,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>'Class separation experiment'!$N$3:$N$6</c:f>
               <c:numCache>
@@ -7991,7 +8297,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -8014,18 +8320,28 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>'Class separation experiment'!$D$3:$D$6</c:f>
               <c:numCache>
@@ -8045,8 +8361,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>'Class separation experiment'!$V$3:$V$6</c:f>
               <c:numCache>
@@ -8066,7 +8382,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -8089,18 +8405,28 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>'Class separation experiment'!$D$3:$D$6</c:f>
               <c:numCache>
@@ -8120,8 +8446,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>'Class separation experiment'!$AD$3:$AD$6</c:f>
               <c:numCache>
@@ -8141,7 +8467,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -8164,18 +8490,28 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>'Class separation experiment'!$D$3:$D$6</c:f>
               <c:numCache>
@@ -8195,8 +8531,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>'Class separation experiment'!$AL$3:$AL$6</c:f>
               <c:numCache>
@@ -8216,7 +8552,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -8239,18 +8575,28 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>'Class separation experiment'!$D$3:$D$6</c:f>
               <c:numCache>
@@ -8270,8 +8616,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>'Class separation experiment'!$AT$3:$AT$6</c:f>
               <c:numCache>
@@ -8291,7 +8637,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -8314,20 +8660,32 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1">
                   <a:lumMod val="60000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>'Class separation experiment'!$D$3:$D$6</c:f>
               <c:numCache>
@@ -8347,8 +8705,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>'Class separation experiment'!$BB$3:$BB$6</c:f>
               <c:numCache>
@@ -8368,7 +8726,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -8391,20 +8749,32 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2">
                   <a:lumMod val="60000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>'Class separation experiment'!$D$3:$D$6</c:f>
               <c:numCache>
@@ -8424,8 +8794,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>'Class separation experiment'!$BJ$3:$BJ$6</c:f>
               <c:numCache>
@@ -8445,7 +8815,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -8468,20 +8838,32 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent3">
                   <a:lumMod val="60000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>'Class separation experiment'!$D$3:$D$6</c:f>
               <c:numCache>
@@ -8501,8 +8883,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>'Class separation experiment'!$BR$3:$BR$6</c:f>
               <c:numCache>
@@ -8522,7 +8904,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -8545,20 +8927,32 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent4">
                   <a:lumMod val="60000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>'Class separation experiment'!$D$3:$D$6</c:f>
               <c:numCache>
@@ -8578,8 +8972,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>'Class separation experiment'!$BZ$3:$BZ$6</c:f>
               <c:numCache>
@@ -8599,7 +8993,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -8615,11 +9009,10 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
         <c:axId val="1761689920"/>
         <c:axId val="1622267408"/>
-      </c:lineChart>
-      <c:catAx>
+      </c:scatterChart>
+      <c:valAx>
         <c:axId val="1761689920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
@@ -8665,11 +9058,8 @@
         </c:txPr>
         <c:crossAx val="1622267408"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
         <c:axId val="1622267408"/>
         <c:scaling>
@@ -8724,7 +9114,7 @@
         </c:txPr>
         <c:crossAx val="1761689920"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -8848,8 +9238,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -8866,18 +9256,28 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>'Class separation experiment'!$D$3:$D$6</c:f>
               <c:numCache>
@@ -8897,8 +9297,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>'Class separation experiment'!$G$3:$G$6</c:f>
               <c:numCache>
@@ -8918,7 +9318,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -8941,18 +9341,28 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>'Class separation experiment'!$D$3:$D$6</c:f>
               <c:numCache>
@@ -8972,8 +9382,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>'Class separation experiment'!$O$3:$O$6</c:f>
               <c:numCache>
@@ -8993,7 +9403,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -9016,18 +9426,28 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>'Class separation experiment'!$D$3:$D$6</c:f>
               <c:numCache>
@@ -9047,8 +9467,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>'Class separation experiment'!$W$3:$W$6</c:f>
               <c:numCache>
@@ -9068,7 +9488,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -9091,18 +9511,28 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>'Class separation experiment'!$D$3:$D$6</c:f>
               <c:numCache>
@@ -9122,8 +9552,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>'Class separation experiment'!$AE$3:$AE$6</c:f>
               <c:numCache>
@@ -9143,7 +9573,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -9166,18 +9596,28 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>'Class separation experiment'!$D$3:$D$6</c:f>
               <c:numCache>
@@ -9197,8 +9637,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>'Class separation experiment'!$AM$3:$AM$6</c:f>
               <c:numCache>
@@ -9218,7 +9658,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -9241,18 +9681,28 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>'Class separation experiment'!$D$3:$D$6</c:f>
               <c:numCache>
@@ -9272,8 +9722,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>'Class separation experiment'!$AU$3:$AU$6</c:f>
               <c:numCache>
@@ -9293,7 +9743,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -9316,20 +9766,32 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1">
                   <a:lumMod val="60000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>'Class separation experiment'!$D$3:$D$6</c:f>
               <c:numCache>
@@ -9349,8 +9811,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>'Class separation experiment'!$BC$3:$BC$6</c:f>
               <c:numCache>
@@ -9370,7 +9832,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -9393,20 +9855,32 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2">
                   <a:lumMod val="60000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>'Class separation experiment'!$D$3:$D$6</c:f>
               <c:numCache>
@@ -9426,8 +9900,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>'Class separation experiment'!$BK$3:$BK$6</c:f>
               <c:numCache>
@@ -9447,7 +9921,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -9470,20 +9944,32 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent3">
                   <a:lumMod val="60000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>'Class separation experiment'!$D$3:$D$6</c:f>
               <c:numCache>
@@ -9503,8 +9989,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>'Class separation experiment'!$BS$3:$BS$6</c:f>
               <c:numCache>
@@ -9524,7 +10010,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -9547,20 +10033,32 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent4">
                   <a:lumMod val="60000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>'Class separation experiment'!$D$3:$D$6</c:f>
               <c:numCache>
@@ -9580,8 +10078,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>'Class separation experiment'!$CA$3:$CA$6</c:f>
               <c:numCache>
@@ -9601,7 +10099,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -9617,11 +10115,10 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
         <c:axId val="1705004032"/>
         <c:axId val="1764520416"/>
-      </c:lineChart>
-      <c:catAx>
+      </c:scatterChart>
+      <c:valAx>
         <c:axId val="1705004032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
@@ -9667,11 +10164,8 @@
         </c:txPr>
         <c:crossAx val="1764520416"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
         <c:axId val="1764520416"/>
         <c:scaling>
@@ -9726,7 +10220,7 @@
         </c:txPr>
         <c:crossAx val="1705004032"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -16563,15 +17057,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>937260</xdr:colOff>
+      <xdr:colOff>1021080</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
+      <xdr:colOff>807720</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16599,15 +17093,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
+      <xdr:colOff>876300</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>960120</xdr:colOff>
+      <xdr:colOff>1074420</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16635,15 +17129,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>601980</xdr:colOff>
+      <xdr:colOff>640080</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>868680</xdr:colOff>
+      <xdr:colOff>906780</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16676,15 +17170,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
+      <xdr:colOff>160020</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>876300</xdr:colOff>
+      <xdr:colOff>464820</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16712,15 +17206,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>967740</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>807720</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16748,15 +17242,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1196340</xdr:colOff>
+      <xdr:colOff>396240</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>358140</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>640080</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16785,16 +17279,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>701040</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>617220</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -17207,10 +17701,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A139699C-9305-47DC-8489-7423359E56C3}">
-  <dimension ref="B2:AB9"/>
+  <dimension ref="B2:AB20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17908,6 +18402,51 @@
         <v>27436.9</v>
       </c>
     </row>
+    <row r="11" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="O11" s="1"/>
+    </row>
+    <row r="14" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="R14">
+        <f>Q3/R3</f>
+        <v>70.655045888089944</v>
+      </c>
+    </row>
+    <row r="15" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="R15">
+        <f t="shared" ref="R13:R19" si="0">Q4/R4</f>
+        <v>71.937454443919563</v>
+      </c>
+    </row>
+    <row r="16" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="R16">
+        <f t="shared" si="0"/>
+        <v>78.928347531069079</v>
+      </c>
+    </row>
+    <row r="17" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R17">
+        <f>Q6/R6</f>
+        <v>82.382851797268557</v>
+      </c>
+    </row>
+    <row r="18" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R18">
+        <f t="shared" si="0"/>
+        <v>84.80624283125033</v>
+      </c>
+    </row>
+    <row r="19" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R19">
+        <f t="shared" si="0"/>
+        <v>80.989568745529013</v>
+      </c>
+    </row>
+    <row r="20" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R20">
+        <f>Q9/R9</f>
+        <v>86.469254258699905</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -17916,10 +18455,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3544120E-7901-4ACC-919F-BCC7BFC6269E}">
-  <dimension ref="B2:AB11"/>
+  <dimension ref="B2:AB18"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="M35" sqref="M35"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18780,6 +19319,24 @@
         <v>40298.800000000003</v>
       </c>
     </row>
+    <row r="13" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K18" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -18790,8 +19347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B33AB164-5509-4329-B104-852118D207D8}">
   <dimension ref="B2:CJ6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
